--- a/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,24 +705,27 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E8" s="3">
         <v>32800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20400</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,9 +735,12 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,9 +765,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,63 +869,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,23 +943,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E17" s="3">
         <v>24900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24600</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,24 +970,27 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E18" s="3">
         <v>7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,23 +1017,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,24 +1044,27 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E21" s="3">
         <v>9800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1038,24 +1074,27 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E22" s="3">
         <v>5300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,24 +1104,27 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,24 +1134,27 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,24 +1194,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,24 +1224,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1239,12 +1299,12 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2700</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,24 +1374,27 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,24 +1404,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11800</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,24 +1464,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11800</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,23 +1560,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,9 +1617,12 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,9 +1677,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1609,9 +1707,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,24 +1737,27 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1083500</v>
+      </c>
+      <c r="E47" s="3">
         <v>654900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>498400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>407100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,24 +1767,27 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E48" s="3">
         <v>14900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,21 +1797,24 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E49" s="3">
         <v>6400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,24 +1887,27 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E52" s="3">
         <v>10800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,24 +1947,27 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1147500</v>
+      </c>
+      <c r="E54" s="3">
         <v>708500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>584100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>532000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,8 +2008,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1905,24 +2035,27 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>891600</v>
+      </c>
+      <c r="E58" s="3">
         <v>601100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>513300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>397400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,36 +2065,42 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1986,24 +2125,27 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>75500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2013,9 +2155,12 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,24 +2275,27 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1045500</v>
+      </c>
+      <c r="E66" s="3">
         <v>616200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>516300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>474800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,24 +2439,27 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-39600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,24 +2559,27 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E76" s="3">
         <v>92300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>67800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,24 +2654,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11800</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,23 +2701,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,24 +2878,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,20 +2925,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,24 +3012,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-298400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,24 +3176,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>426500</v>
+      </c>
+      <c r="E100" s="3">
         <v>117100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-53500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>129100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,9 +3206,12 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2988,24 +3236,27 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-78100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>111200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -2077,8 +2077,8 @@
       <c r="D59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+      <c r="E59" s="3">
+        <v>600</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,39 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
-        <v>43100</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,9 +710,12 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,9 +743,12 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,9 +776,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +809,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +827,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +857,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +890,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,12 +920,15 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,12 +953,15 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,8 +971,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -973,9 +1001,12 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,9 +1034,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,8 +1052,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1047,9 +1082,12 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1077,9 +1115,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,9 +1148,12 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1137,9 +1181,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1167,9 +1214,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,9 +1247,12 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1227,9 +1280,12 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1257,9 +1313,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1346,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1379,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,9 +1445,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1407,9 +1478,12 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1437,9 +1511,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,9 +1544,12 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1497,29 +1577,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
-        <v>43100</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1615,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,26 +1648,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E41" s="3">
         <v>7400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96800</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,9 +1678,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,9 +1711,12 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1650,9 +1744,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,9 +1777,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1710,9 +1810,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,27 +1843,30 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1515200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1083500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>654900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>498400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>407100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,27 +1876,30 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E48" s="3">
         <v>18500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,24 +1909,27 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,9 +1942,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,27 +2008,30 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E52" s="3">
         <v>10100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2041,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,27 +2074,30 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1611700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1147500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>708500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>584100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>532000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,9 +2107,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,8 +2140,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2038,27 +2170,30 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1424100</v>
+      </c>
+      <c r="E58" s="3">
         <v>891600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>601100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>513300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>397400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,21 +2203,24 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,12 +2233,15 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,27 +2269,30 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E61" s="3">
         <v>146000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2158,9 +2302,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2188,9 +2335,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,27 +2434,30 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1486700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1045500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>616200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>516300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>474800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,9 +2467,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,27 +2614,30 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-37000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2647,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,27 +2746,30 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E76" s="3">
         <v>102000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>92300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>67800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,9 +2779,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2812,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
-        <v>43100</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,9 +2850,12 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2687,9 +2883,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,26 +2901,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2931,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,27 +3096,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,9 +3129,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,23 +3147,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3177,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,27 +3243,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-298400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-97600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3276,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3294,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3324,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,27 +3423,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>426500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>117100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-53500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>129100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,9 +3456,12 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3239,27 +3489,30 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>107700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-78100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>111200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3522,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,29 +665,30 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
+      <c r="D7" s="2">
+        <v>44561</v>
       </c>
       <c r="E7" s="2">
         <v>44196</v>
@@ -698,8 +699,8 @@
       <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
+      <c r="H7" s="2">
+        <v>43100</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
@@ -707,48 +708,78 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>40400</v>
+        <v>53600</v>
       </c>
       <c r="E8" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F8" s="3">
         <v>32800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>23700</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20400</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,9 +810,24 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,9 +858,24 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,8 +889,13 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,9 +926,24 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,18 +974,33 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>3200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,21 +1019,36 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,12 +1067,27 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +1098,109 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26900</v>
+        <v>33400</v>
       </c>
       <c r="E17" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F17" s="3">
         <v>24900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24600</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>22700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>24600</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13500</v>
+        <v>20200</v>
       </c>
       <c r="E18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F18" s="3">
         <v>7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,173 +1214,253 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>300</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E21" s="3">
         <v>15200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3">
         <v>5800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E23" s="3">
         <v>8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1491,120 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E26" s="3">
         <v>6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9100</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E27" s="3">
         <v>6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9100</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,9 +1635,24 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,12 +1665,12 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>-2700</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1379,12 +1680,27 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1731,24 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1779,120 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E33" s="3">
         <v>6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11800</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,52 +1923,82 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E35" s="3">
         <v>6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11800</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
+      <c r="D38" s="2">
+        <v>44561</v>
       </c>
       <c r="E38" s="2">
         <v>44196</v>
@@ -1603,8 +2009,8 @@
       <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
+      <c r="H38" s="2">
+        <v>43100</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
@@ -1612,15 +2018,30 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="L38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +2055,13 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,8 +2075,13 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1675,15 +2106,30 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L41" s="3">
+        <v>38500</v>
+      </c>
+      <c r="M41" s="3">
+        <v>96800</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1714,9 +2160,24 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1747,9 +2208,24 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1780,9 +2256,24 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1813,9 +2304,24 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1846,14 +2352,29 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1515200</v>
+        <v>1519100</v>
       </c>
       <c r="E47" s="3">
         <v>1083500</v>
@@ -1873,20 +2394,35 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>654900</v>
+      </c>
+      <c r="L47" s="3">
+        <v>498400</v>
+      </c>
+      <c r="M47" s="3">
+        <v>407100</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17600</v>
+        <v>20600</v>
       </c>
       <c r="E48" s="3">
         <v>18500</v>
@@ -1906,15 +2442,30 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>14900</v>
+      </c>
+      <c r="L48" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1939,15 +2490,30 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2544,24 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,9 +2592,24 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2038,15 +2634,30 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="M52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,9 +2688,24 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2104,15 +2730,30 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K54" s="3">
+        <v>708500</v>
+      </c>
+      <c r="L54" s="3">
+        <v>584100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>532000</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2767,13 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,8 +2787,13 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2173,9 +2824,24 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2200,20 +2866,35 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>601100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>513300</v>
+      </c>
+      <c r="M58" s="3">
+        <v>397400</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>4000</v>
       </c>
       <c r="E59" s="3">
         <v>2100</v>
@@ -2233,15 +2914,30 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2272,9 +2968,24 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2300,14 +3011,29 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
+        <v>75500</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2338,9 +3064,24 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +3112,24 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +3160,24 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,9 +3208,24 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2464,15 +3250,30 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K66" s="3">
+        <v>616200</v>
+      </c>
+      <c r="L66" s="3">
+        <v>516300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>474800</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +3287,13 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +3324,24 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +3372,24 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +3420,24 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,9 +3468,24 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2644,15 +3510,30 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K72" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +3564,24 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +3612,24 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,9 +3660,24 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2776,15 +3702,30 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <v>92300</v>
+      </c>
+      <c r="L76" s="3">
+        <v>67800</v>
+      </c>
+      <c r="M76" s="3">
+        <v>57100</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,19 +3756,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>3</v>
+      <c r="D80" s="2">
+        <v>44561</v>
       </c>
       <c r="E80" s="2">
         <v>44196</v>
@@ -2838,8 +3794,8 @@
       <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
+      <c r="H80" s="2">
+        <v>43100</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
@@ -2847,48 +3803,78 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="L80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E81" s="3">
         <v>6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11800</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,13 +3888,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1400</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
@@ -2928,15 +3919,30 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>700</v>
+      </c>
+      <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3973,24 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3"/>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +4021,24 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +4069,24 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3"/>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +4117,24 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,17 +4165,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>70900</v>
       </c>
       <c r="E89" s="3">
-        <v>-20400</v>
+        <v>-7800</v>
       </c>
       <c r="F89" s="3">
         <v>-37900</v>
@@ -3126,15 +4207,30 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="L89" s="3">
+        <v>8700</v>
+      </c>
+      <c r="M89" s="3">
+        <v>27300</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3"/>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,13 +4244,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
         <v>-2800</v>
@@ -3174,15 +4275,30 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +4329,24 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3"/>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,17 +4377,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-226300</v>
       </c>
       <c r="E94" s="3">
-        <v>-298400</v>
+        <v>-311000</v>
       </c>
       <c r="F94" s="3">
         <v>-97600</v>
@@ -3273,15 +4419,30 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3"/>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,8 +4456,13 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3327,9 +4493,24 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3"/>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +4541,24 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3"/>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +4589,24 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3"/>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,14 +4637,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3"/>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>222800</v>
       </c>
       <c r="E100" s="3">
         <v>426500</v>
@@ -3453,15 +4679,30 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>117100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="M100" s="3">
+        <v>129100</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3"/>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3492,14 +4733,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>67400</v>
       </c>
       <c r="E102" s="3">
         <v>107700</v>
@@ -3519,13 +4775,28 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="K102" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>111200</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/COSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="92">
   <si>
     <t>COSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,58 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,42 +729,45 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E8" s="3">
         <v>53600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
         <v>23700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,9 +780,12 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,9 +831,12 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,9 +882,12 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +906,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,9 +954,12 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,21 +1005,24 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,24 +1053,27 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,12 +1104,15 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1103,41 +1128,42 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E17" s="3">
         <v>33400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24600</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>22700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,42 +1176,45 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E18" s="3">
         <v>20200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1198,9 +1227,12 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1219,8 +1251,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1231,29 +1264,29 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,42 +1299,45 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E21" s="3">
         <v>21600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,42 +1350,45 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E22" s="3">
         <v>4800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,42 +1401,45 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E23" s="3">
         <v>15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1410,42 +1452,45 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3500</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1458,9 +1503,12 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1506,42 +1554,45 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E26" s="3">
         <v>12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1554,42 +1605,45 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E27" s="3">
         <v>12300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,9 +1656,12 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1650,9 +1707,12 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1668,24 +1728,24 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2700</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2700</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1698,9 +1758,12 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1746,9 +1809,12 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1794,9 +1860,12 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1807,29 +1876,29 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,42 +1911,45 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E33" s="3">
         <v>12300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11800</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1890,9 +1962,12 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1938,42 +2013,45 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E35" s="3">
         <v>12300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11800</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,47 +2064,50 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2039,9 +2120,12 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2060,8 +2144,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2080,44 +2165,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
         <v>15300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>96800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
         <v>4700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>38500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>96800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,9 +2213,12 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2175,9 +2264,12 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2223,9 +2315,12 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2271,9 +2366,12 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2319,9 +2417,12 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2367,45 +2468,48 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1719400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1519100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1083500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>654900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>498400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>407100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>654900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>498400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>407100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,45 +2519,48 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E48" s="3">
         <v>20600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3">
         <v>14900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2463,42 +2570,45 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E49" s="3">
         <v>7600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
         <v>6400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2511,9 +2621,12 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3"/>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2559,9 +2672,12 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-      <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3"/>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2607,45 +2723,48 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3"/>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E52" s="3">
         <v>14500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>10800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2655,9 +2774,12 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2703,45 +2825,48 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1835500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1611700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1147500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>708500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>584100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>532000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
         <v>708500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>584100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>532000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,9 +2876,12 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2772,8 +2900,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2792,8 +2921,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2839,45 +2969,48 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3"/>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1548600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1424100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>891600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>601100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>513300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>397400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>601100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>513300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>397400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2887,24 +3020,27 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2914,12 +3050,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,12 +3068,15 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3"/>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2983,45 +3122,48 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3"/>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E61" s="3">
         <v>44600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>146000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>10000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>75500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3031,9 +3173,12 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3"/>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3079,9 +3224,12 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3127,9 +3275,12 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3"/>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3175,9 +3326,12 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3223,45 +3377,48 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1716700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1486700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1045500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>616200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>516300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>474800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
         <v>616200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>516300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>474800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3271,9 +3428,12 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3292,8 +3452,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3339,9 +3500,12 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3387,9 +3551,12 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3435,9 +3602,12 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3483,45 +3653,48 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-37000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-37000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3531,9 +3704,12 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3"/>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3579,9 +3755,12 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3"/>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3627,9 +3806,12 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3675,45 +3857,48 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E76" s="3">
         <v>124900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>92300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
         <v>92300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>57100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3723,9 +3908,12 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3"/>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3771,47 +3959,50 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3824,42 +4015,45 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R80" s="2"/>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2"/>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E81" s="3">
         <v>12300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11800</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,9 +4066,12 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3"/>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3893,44 +4090,45 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3940,9 +4138,12 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3"/>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3988,9 +4189,12 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-      <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3"/>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4036,9 +4240,12 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-      <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3"/>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4084,9 +4291,12 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-      <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3"/>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4132,9 +4342,12 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-      <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3"/>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4180,45 +4393,48 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-      <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3"/>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E89" s="3">
         <v>70900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-37900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,9 +4444,12 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3"/>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4249,8 +4468,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4258,32 +4478,32 @@
         <v>-2200</v>
       </c>
       <c r="E91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4296,9 +4516,12 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3"/>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4344,9 +4567,12 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-      <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3"/>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4392,45 +4618,48 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3"/>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-502900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-226300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-311000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-97600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-45200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-97600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4440,9 +4669,12 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3"/>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4461,8 +4693,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4508,9 +4741,12 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-      <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3"/>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4556,9 +4792,12 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-      <c r="R97" s="3"/>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3"/>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4604,9 +4843,12 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-      <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3"/>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4652,45 +4894,48 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-      <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3"/>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E100" s="3">
         <v>222800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>426500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>117100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-53500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>129100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>117100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-53500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>129100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4700,9 +4945,12 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3"/>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4748,45 +4996,48 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3"/>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3"/>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-195400</v>
+      </c>
+      <c r="E102" s="3">
         <v>67400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>107700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-78100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>111200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-18400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-78100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>111200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4796,7 +5047,10 @@
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R102" s="3"/>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
